--- a/models/calculation engines/economic_overlay/outputs/mining_costs/total_mining_costs_RMB-t_ore-collapse_accumulated_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/total_mining_costs_RMB-t_ore-collapse_accumulated_bauxite.xlsx
@@ -1984,7 +1984,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>170.6589464998239</v>
+        <v>145.164347804412</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>

--- a/models/calculation engines/economic_overlay/outputs/mining_costs/total_mining_costs_RMB-t_ore-collapse_accumulated_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/total_mining_costs_RMB-t_ore-collapse_accumulated_bauxite.xlsx
@@ -598,7 +598,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>163.0849150035276</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>163.0849150035276</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>163.0849150035276</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -640,7 +640,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>163.0849150035276</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -654,7 +654,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>163.0849150035276</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>160.3603597932021</v>
+        <v>160.3603413011322</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>176.9941956490692</v>
+        <v>176.9941777499403</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -696,7 +696,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -724,7 +724,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -794,7 +794,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -808,7 +808,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -822,7 +822,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -850,7 +850,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -892,7 +892,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -906,7 +906,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -920,7 +920,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -948,7 +948,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -962,7 +962,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -990,7 +990,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>160.9906037776391</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>163.6671320049492</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>164.3800462210384</v>
+        <v>164.380051548859</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>164.3800462210384</v>
+        <v>164.380051548859</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>167.4635403299772</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>167.4635403299772</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>167.4635403299772</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>167.4635403299772</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>167.4635403299772</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>163.7595435872911</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>162.6548488455029</v>
+        <v>162.654852680744</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>162.6548488455029</v>
+        <v>162.654852680744</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>158.7111701559406</v>
+        <v>158.7111736378727</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>158.7111701559406</v>
+        <v>158.7111736378727</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>171.8401319914812</v>
+        <v>171.8401134994113</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>171.8401319914812</v>
+        <v>171.8401134994113</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>166.8967733417243</v>
+        <v>166.8967772899837</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>169.6778831997116</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>169.6778831997116</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>169.6778831997116</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>169.6778831997116</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>169.6778831997116</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>172.9519629805715</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>145.164347804412</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>168.5258956606171</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>168.5258956606171</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>168.5258956606171</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>168.5258956606171</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>168.5258956606171</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>179.1117978514138</v>
+        <v>179.1117793593439</v>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>159.9625002969059</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>

--- a/models/calculation engines/economic_overlay/outputs/mining_costs/total_mining_costs_RMB-t_ore-collapse_accumulated_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/total_mining_costs_RMB-t_ore-collapse_accumulated_bauxite.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>164.1797456341221</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -598,7 +598,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>169.5472212466616</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>169.5472212466616</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>169.5472212466616</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -639,9 +639,7 @@
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>169.5472212466616</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -654,7 +652,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>169.5472212466616</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -668,7 +666,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>160.3603413011322</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -682,7 +680,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>176.9941777499403</v>
+        <v>158.7111736378727</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -695,9 +693,7 @@
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>160.9906077258984</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -709,9 +705,7 @@
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>160.9906077258984</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -738,7 +732,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>160.9906077258984</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -766,7 +760,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>160.9906077258984</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -794,7 +788,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>160.9906077258984</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -808,7 +802,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>160.9906077258984</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -822,7 +816,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>160.9906077258984</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -836,7 +830,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>160.9906077258984</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -850,7 +844,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>160.9906077258984</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -863,9 +857,7 @@
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>160.9906077258984</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -878,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>160.9906077258984</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -892,7 +884,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>160.9906077258984</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -906,7 +898,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>160.9906077258984</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -919,9 +911,7 @@
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>160.9906077258984</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -934,7 +924,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>160.9906077258984</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -947,9 +937,7 @@
       <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>160.9906077258984</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -962,7 +950,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>160.9906077258984</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -976,7 +964,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160.9906077258984</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -990,7 +978,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>160.9906077258984</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
@@ -1004,7 +992,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>160.9906077258984</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
@@ -1045,9 +1033,7 @@
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>163.6671586480832</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1060,7 +1046,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
@@ -1073,9 +1059,7 @@
       <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>163.6671586480832</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1088,7 +1072,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>163.6671586480832</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -1102,7 +1086,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>163.6671586480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
@@ -1116,7 +1100,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>163.6671586480832</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
@@ -1130,7 +1114,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
@@ -1144,7 +1128,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
@@ -1158,7 +1142,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>163.6671586480832</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
@@ -1172,7 +1156,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
@@ -1200,7 +1184,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>163.6671586480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
@@ -1214,7 +1198,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
@@ -1228,7 +1212,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
@@ -1242,7 +1226,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>163.6671586480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
@@ -1256,7 +1240,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
@@ -1270,7 +1254,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>163.6671586480832</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
@@ -1284,7 +1268,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>164.380051548859</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
@@ -1298,7 +1282,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>164.380051548859</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
@@ -1326,7 +1310,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>167.4635219865619</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
@@ -1340,7 +1324,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>167.4635219865619</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
@@ -1354,7 +1338,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>167.4635219865619</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
@@ -1368,7 +1352,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>167.4635219865619</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
@@ -1382,7 +1366,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>163.7595699758797</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -1396,7 +1380,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>163.7595699758797</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -1410,7 +1394,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>163.7595699758797</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
@@ -1424,7 +1408,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>163.7595699758797</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
@@ -1438,7 +1422,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>163.7595699758797</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
@@ -1452,7 +1436,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>163.7595699758797</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
@@ -1466,7 +1450,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>163.7595699758797</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
@@ -1480,7 +1464,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>163.7595699758797</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
@@ -1494,7 +1478,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>163.7595699758797</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
@@ -1508,7 +1492,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>163.7595699758797</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
@@ -1522,7 +1506,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>163.7595699758797</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
@@ -1550,7 +1534,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>163.7595699758797</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
@@ -1564,7 +1548,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>163.7595699758797</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
@@ -1577,9 +1561,7 @@
       <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>163.7595699758797</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
@@ -1591,9 +1573,7 @@
       <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>163.7595699758797</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
@@ -1606,7 +1586,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>163.7595699758797</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
@@ -1620,7 +1600,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>163.7595699758797</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
@@ -1648,7 +1628,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>163.7595699758797</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
@@ -1662,7 +1642,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>163.7595699758797</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
@@ -1676,7 +1656,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>163.7595699758797</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
@@ -1690,7 +1670,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>162.654852680744</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
@@ -1704,7 +1684,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>162.654852680744</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
@@ -1718,7 +1698,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>158.7111736378727</v>
+        <v>164.1797456341221</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
@@ -1732,7 +1712,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>158.7111736378727</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
@@ -1746,7 +1726,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>171.8401134994113</v>
+        <v>160.3603413011322</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
@@ -1760,7 +1740,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>171.8401134994113</v>
+        <v>176.9941777499403</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
@@ -1774,7 +1754,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>164.1797456341221</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
@@ -1788,7 +1768,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>166.8967772899837</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
@@ -1802,7 +1782,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>169.6778876570618</v>
+        <v>164.380051548859</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
@@ -1816,7 +1796,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>169.6778876570618</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
@@ -1830,7 +1810,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>169.6778876570618</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
@@ -1844,7 +1824,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>169.6778876570618</v>
+        <v>162.654852680744</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
@@ -1858,7 +1838,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>169.6778876570618</v>
+        <v>158.7111736378727</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
@@ -1872,7 +1852,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>172.9519653078637</v>
+        <v>171.8401134994113</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
@@ -1886,7 +1866,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>172.9519653078637</v>
+        <v>164.1797456341221</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
@@ -1900,7 +1880,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>172.9519653078637</v>
+        <v>166.8967772899837</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
@@ -1928,7 +1908,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>172.9519653078637</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
@@ -1942,7 +1922,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>172.9519653078637</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
@@ -1956,7 +1936,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>172.9519653078637</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
@@ -1970,7 +1950,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>172.9519653078637</v>
+        <v>179.1117793593439</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
@@ -1984,7 +1964,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>170.6589504480832</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
@@ -1998,7 +1978,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>170.6589504480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
@@ -2012,7 +1992,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
@@ -2040,7 +2020,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
@@ -2054,7 +2034,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>170.6589504480832</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
@@ -2068,7 +2048,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>170.6589504480832</v>
+        <v>171.8401134994113</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
@@ -2082,7 +2062,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>170.6589504480832</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
@@ -2096,7 +2076,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>170.6589504480832</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
@@ -2110,7 +2090,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>170.6589504480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
@@ -2137,9 +2117,7 @@
       <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>170.6589504480832</v>
-      </c>
+      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
@@ -2152,7 +2130,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>170.6589504480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
@@ -2166,7 +2144,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>170.6589504480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
@@ -2179,9 +2157,7 @@
       <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>170.6589504480832</v>
-      </c>
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
@@ -2194,7 +2170,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>170.6589504480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
@@ -2208,7 +2184,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>170.6589504480832</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
@@ -2222,7 +2198,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
@@ -2264,7 +2240,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>170.6589504480832</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
@@ -2278,7 +2254,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>170.6589504480832</v>
+        <v>169.6778876570618</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
@@ -2292,7 +2268,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>170.6589504480832</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
@@ -2306,7 +2282,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
@@ -2320,7 +2296,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
@@ -2334,7 +2310,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
@@ -2348,7 +2324,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>170.6589504480832</v>
+        <v>168.5259217101511</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
@@ -2362,7 +2338,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>170.6589504480832</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
@@ -2376,7 +2352,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>170.6589504480832</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
@@ -2390,7 +2366,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>170.6589504480832</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
@@ -2403,9 +2379,7 @@
       <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>170.6589504480832</v>
-      </c>
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -2418,7 +2392,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>170.6589504480832</v>
+        <v>164.380051548859</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
@@ -2432,7 +2406,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>170.6589504480832</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
@@ -2446,7 +2420,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>170.6589504480832</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
@@ -2460,7 +2434,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>170.6589504480832</v>
+        <v>167.4635219865619</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
@@ -2474,7 +2448,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>170.6589504480832</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
@@ -2488,7 +2462,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>170.6589504480832</v>
+        <v>169.5472212466616</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
@@ -2530,7 +2504,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>168.5259217101511</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
@@ -2544,7 +2518,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>168.5259217101511</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
@@ -2558,7 +2532,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>168.5259217101511</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
@@ -2572,7 +2546,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>168.5259217101511</v>
+        <v>159.962504132147</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
@@ -2586,7 +2560,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>168.5259217101511</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
@@ -2600,7 +2574,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>179.1117793593439</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
@@ -2614,7 +2588,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>159.962504132147</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
@@ -2628,7 +2602,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>159.962504132147</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
@@ -2642,7 +2616,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>159.962504132147</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
@@ -2670,7 +2644,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>159.962504132147</v>
+        <v>163.6671586480832</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
@@ -2684,7 +2658,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>159.962504132147</v>
+        <v>172.9519653078637</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
@@ -2698,7 +2672,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>159.962504132147</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
@@ -2712,7 +2686,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>159.962504132147</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
@@ -2740,7 +2714,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159.962504132147</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
@@ -2754,7 +2728,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>159.962504132147</v>
+        <v>162.654852680744</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
@@ -2768,7 +2742,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>159.962504132147</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
@@ -2782,7 +2756,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>159.962504132147</v>
+        <v>170.6589504480832</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
@@ -2796,7 +2770,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>159.962504132147</v>
+        <v>163.7595699758797</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
@@ -2810,7 +2784,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>159.962504132147</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
@@ -2824,7 +2798,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>159.962504132147</v>
+        <v>160.9906077258984</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
@@ -2836,6 +2810,188 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>170.6589504480832</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>170.6589504480832</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>170.6589504480832</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>163.7595699758797</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.6778876570618</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>172.9519653078637</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>163.6671586480832</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>163.6671586480832</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>170.6589504480832</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>169.6778876570618</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>169.6778876570618</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>163.6671586480832</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>170.6589504480832</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
